--- a/data/汇总结果.xlsx
+++ b/data/汇总结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="12370"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="汇总详情" sheetId="1" r:id="rId1"/>
     <sheet name="教师课时统计" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -303,368 +303,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -672,313 +328,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1261,44 +622,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="K225" sqref="K225"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.0275229357798" customWidth="1"/>
-    <col min="2" max="2" width="20.5321100917431" customWidth="1"/>
-    <col min="3" max="3" width="7.46788990825688" customWidth="1"/>
-    <col min="4" max="5" width="11.5688073394495" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1331,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1386,13 +739,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="D11">
-        <f>SUM(D2:D9)</f>
-        <v>30</v>
+        <f>sum(D2:D9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1400,11 +753,11 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <f>SUM(E2:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <f>sum(E2:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1507,13 +860,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <f>SUM(D14:D21)</f>
-        <v>12</v>
+        <f>sum(D14:D21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1521,11 +874,11 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <f>SUM(E14:E21)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <f>sum(E14:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1536,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1547,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1625,13 +978,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="D35">
-        <f>SUM(D26:D33)</f>
-        <v>16</v>
+        <f>sum(D26:D33)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1639,11 +992,11 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <f>SUM(E26:E33)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <f>sum(E26:E33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1654,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1665,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1676,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1743,13 +1096,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>14</v>
       </c>
       <c r="D47">
-        <f>SUM(D38:D45)</f>
-        <v>16</v>
+        <f>sum(D38:D45)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1757,11 +1110,11 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <f>SUM(E38:E45)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <f>sum(E38:E45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -1772,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1783,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1864,13 +1217,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>14</v>
       </c>
       <c r="D59">
-        <f>SUM(D50:D57)</f>
-        <v>12</v>
+        <f>sum(D50:D57)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1878,11 +1231,11 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <f>SUM(E50:E57)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <f>sum(E50:E57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1893,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1904,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1999,13 +1352,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <f>SUM(D62:D70)</f>
-        <v>12</v>
+        <f>sum(D62:D70)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2013,11 +1366,11 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f>SUM(E62:E70)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <f>sum(E62:E70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -2028,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2039,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -2134,13 +1487,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="D85">
-        <f>SUM(D75:D83)</f>
-        <v>12</v>
+        <f>sum(D75:D83)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2148,11 +1501,11 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <f>SUM(E75:E83)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <f>sum(E75:E83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -2261,13 +1614,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>14</v>
       </c>
       <c r="D97">
-        <f>SUM(D88:D95)</f>
-        <v>2</v>
+        <f>sum(D88:D95)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2275,11 +1628,11 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <f>SUM(E88:E95)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <f>sum(E88:E95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -2388,13 +1741,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>14</v>
       </c>
       <c r="D109">
-        <f>SUM(D100:D107)</f>
-        <v>2</v>
+        <f>sum(D100:D107)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2402,11 +1755,11 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <f>SUM(E100:E107)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <f>sum(E100:E107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -2417,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -2428,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>53</v>
       </c>
@@ -2439,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +1803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>53</v>
       </c>
@@ -2461,7 +1814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>53</v>
       </c>
@@ -2472,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>53</v>
       </c>
@@ -2483,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -2508,13 +1861,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>14</v>
       </c>
       <c r="D122">
-        <f>SUM(D112:D120)</f>
-        <v>27</v>
+        <f>sum(D112:D120)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2522,11 +1875,11 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <f>SUM(E112:E120)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <f>sum(E112:E120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -2537,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -2548,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -2559,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -2654,13 +2007,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>14</v>
       </c>
       <c r="D136">
-        <f>SUM(D125:D134)</f>
-        <v>14</v>
+        <f>sum(D125:D134)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2668,11 +2021,11 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <f>SUM(E125:E134)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <f>sum(E125:E134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -2683,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -2694,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>63</v>
       </c>
@@ -2705,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>63</v>
       </c>
@@ -2800,13 +2153,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>14</v>
       </c>
       <c r="D150">
-        <f>SUM(D139:D148)</f>
-        <v>16</v>
+        <f>sum(D139:D148)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2814,11 +2167,11 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <f>SUM(E139:E148)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <f>sum(E139:E148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>74</v>
       </c>
@@ -2840,7 +2193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>74</v>
       </c>
@@ -2879,13 +2232,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>14</v>
       </c>
       <c r="D159">
-        <f>SUM(D153:D157)</f>
-        <v>22</v>
+        <f>sum(D153:D157)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -2893,11 +2246,11 @@
         <v>15</v>
       </c>
       <c r="E160">
-        <f>SUM(E153:E157)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <f>sum(E153:E157)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -2908,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>78</v>
       </c>
@@ -2919,7 +2272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>78</v>
       </c>
@@ -2958,13 +2311,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>14</v>
       </c>
       <c r="D168">
-        <f>SUM(D162:D166)</f>
-        <v>22</v>
+        <f>sum(D162:D166)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2972,11 +2325,11 @@
         <v>15</v>
       </c>
       <c r="E169">
-        <f>SUM(E162:E166)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <f>sum(E162:E166)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>79</v>
       </c>
@@ -2987,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>79</v>
       </c>
@@ -2998,7 +2351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -3037,13 +2390,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>14</v>
       </c>
       <c r="D177">
-        <f>SUM(D171:D175)</f>
-        <v>22</v>
+        <f>sum(D171:D175)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3051,11 +2404,11 @@
         <v>15</v>
       </c>
       <c r="E178">
-        <f>SUM(E171:E175)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <f>sum(E171:E175)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>80</v>
       </c>
@@ -3066,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>80</v>
       </c>
@@ -3077,7 +2430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>80</v>
       </c>
@@ -3088,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>80</v>
       </c>
@@ -3099,7 +2452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>80</v>
       </c>
@@ -3110,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>80</v>
       </c>
@@ -3177,13 +2530,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>14</v>
       </c>
       <c r="D191">
-        <f>SUM(D180:D189)</f>
-        <v>20</v>
+        <f>sum(D180:D189)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3191,11 +2544,11 @@
         <v>15</v>
       </c>
       <c r="E192">
-        <f>SUM(E180:E189)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <f>sum(E180:E189)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -3206,7 +2559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -3217,7 +2570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -3228,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -3239,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>90</v>
       </c>
@@ -3250,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>90</v>
       </c>
@@ -3261,7 +2614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -3272,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>90</v>
       </c>
@@ -3283,7 +2636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -3294,13 +2647,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>14</v>
       </c>
       <c r="D204">
-        <f>SUM(D194:D202)</f>
-        <v>30</v>
+        <f>sum(D194:D202)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3308,11 +2661,11 @@
         <v>15</v>
       </c>
       <c r="E205">
-        <f>SUM(E194:E202)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <f>sum(E194:E202)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>92</v>
       </c>
@@ -3323,7 +2676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>92</v>
       </c>
@@ -3334,7 +2687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>92</v>
       </c>
@@ -3345,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>92</v>
       </c>
@@ -3356,7 +2709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>92</v>
       </c>
@@ -3367,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>92</v>
       </c>
@@ -3378,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>92</v>
       </c>
@@ -3389,7 +2742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -3400,7 +2753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -3411,13 +2764,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>14</v>
       </c>
       <c r="D217">
-        <f>SUM(D207:D215)</f>
-        <v>30</v>
+        <f>sum(D207:D215)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -3425,29 +2778,22 @@
         <v>15</v>
       </c>
       <c r="E218">
-        <f>SUM(E207:E215)</f>
+        <f>sum(E207:E215)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="14.3577981651376" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3707,6 +3053,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/汇总结果.xlsx
+++ b/data/汇总结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="26083" windowHeight="12370"/>
   </bookViews>
   <sheets>
     <sheet name="汇总详情" sheetId="1" r:id="rId1"/>
     <sheet name="教师课时统计" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -303,24 +303,367 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -328,18 +671,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -622,17 +1259,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="K227" sqref="K227"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.0275229357798" customWidth="1"/>
+    <col min="2" max="2" width="20.5321100917431" customWidth="1"/>
+    <col min="3" max="3" width="7.46788990825688" customWidth="1"/>
+    <col min="4" max="5" width="11.5688073394495" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -651,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -662,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -673,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -684,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -695,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -706,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -717,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -728,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -739,13 +1384,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="D11">
-        <f>sum(D2:D9)</f>
-        <v>0</v>
+        <f>SUM(D2:D9)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -753,11 +1398,11 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <f>sum(E2:E9)</f>
+        <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -768,7 +1413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -779,7 +1424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -860,13 +1505,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <f>sum(D14:D21)</f>
-        <v>0</v>
+        <f>SUM(D14:D21)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -874,11 +1519,11 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <f>sum(E14:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f>SUM(E14:E21)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -889,7 +1534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -900,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -911,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -978,13 +1623,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="D35">
-        <f>sum(D26:D33)</f>
-        <v>0</v>
+        <f>SUM(D26:D33)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -992,11 +1637,11 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <f>sum(E26:E33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f>SUM(E26:E33)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1007,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1018,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1096,13 +1741,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>14</v>
       </c>
       <c r="D47">
-        <f>sum(D38:D45)</f>
-        <v>0</v>
+        <f>SUM(D38:D45)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1110,11 +1755,11 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <f>sum(E38:E45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f>SUM(E38:E45)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1217,13 +1862,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>14</v>
       </c>
       <c r="D59">
-        <f>sum(D50:D57)</f>
-        <v>0</v>
+        <f>SUM(D50:D57)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1231,11 +1876,11 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <f>sum(E50:E57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <f>SUM(E50:E57)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1246,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1257,7 +1902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -1352,13 +1997,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="D72">
-        <f>sum(D62:D70)</f>
-        <v>0</v>
+        <f>SUM(D62:D70)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1366,11 +2011,11 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f>sum(E62:E70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <f>SUM(E62:E70)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -1381,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -1392,7 +2037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -1487,13 +2132,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="D85">
-        <f>sum(D75:D83)</f>
-        <v>0</v>
+        <f>SUM(D75:D83)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1501,11 +2146,11 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <f>sum(E75:E83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <f>SUM(E75:E83)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -1614,13 +2259,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>14</v>
       </c>
       <c r="D97">
-        <f>sum(D88:D95)</f>
-        <v>0</v>
+        <f>SUM(D88:D95)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -1628,11 +2273,11 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <f>sum(E88:E95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <f>SUM(E88:E95)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -1741,13 +2386,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>14</v>
       </c>
       <c r="D109">
-        <f>sum(D100:D107)</f>
-        <v>0</v>
+        <f>SUM(D100:D107)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -1755,11 +2400,11 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <f>sum(E100:E107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <f>SUM(E100:E107)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -1781,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>53</v>
       </c>
@@ -1792,7 +2437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>53</v>
       </c>
@@ -1803,7 +2448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>53</v>
       </c>
@@ -1814,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>53</v>
       </c>
@@ -1825,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -1861,13 +2506,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>14</v>
       </c>
       <c r="D122">
-        <f>sum(D112:D120)</f>
-        <v>0</v>
+        <f>SUM(D112:D120)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -1875,11 +2520,11 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <f>sum(E112:E120)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <f>SUM(E112:E120)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -1890,7 +2535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -1901,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -1912,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>58</v>
       </c>
@@ -2007,13 +2652,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>14</v>
       </c>
       <c r="D136">
-        <f>sum(D125:D134)</f>
-        <v>0</v>
+        <f>SUM(D125:D134)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2021,11 +2666,11 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <f>sum(E125:E134)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <f>SUM(E125:E134)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -2036,7 +2681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -2047,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>63</v>
       </c>
@@ -2058,7 +2703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>63</v>
       </c>
@@ -2153,13 +2798,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>14</v>
       </c>
       <c r="D150">
-        <f>sum(D139:D148)</f>
-        <v>0</v>
+        <f>SUM(D139:D148)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2167,11 +2812,11 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <f>sum(E139:E148)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <f>SUM(E139:E148)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>74</v>
       </c>
@@ -2182,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>74</v>
       </c>
@@ -2193,7 +2838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>74</v>
       </c>
@@ -2232,13 +2877,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>14</v>
       </c>
       <c r="D159">
-        <f>sum(D153:D157)</f>
-        <v>0</v>
+        <f>SUM(D153:D157)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -2246,11 +2891,11 @@
         <v>15</v>
       </c>
       <c r="E160">
-        <f>sum(E153:E157)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <f>SUM(E153:E157)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -2261,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>78</v>
       </c>
@@ -2272,7 +2917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>78</v>
       </c>
@@ -2311,13 +2956,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>14</v>
       </c>
       <c r="D168">
-        <f>sum(D162:D166)</f>
-        <v>0</v>
+        <f>SUM(D162:D166)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -2325,11 +2970,11 @@
         <v>15</v>
       </c>
       <c r="E169">
-        <f>sum(E162:E166)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <f>SUM(E162:E166)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>79</v>
       </c>
@@ -2340,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>79</v>
       </c>
@@ -2351,7 +2996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -2390,13 +3035,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>14</v>
       </c>
       <c r="D177">
-        <f>sum(D171:D175)</f>
-        <v>0</v>
+        <f>SUM(D171:D175)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -2404,11 +3049,11 @@
         <v>15</v>
       </c>
       <c r="E178">
-        <f>sum(E171:E175)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <f>SUM(E171:E175)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>80</v>
       </c>
@@ -2419,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>80</v>
       </c>
@@ -2430,7 +3075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>80</v>
       </c>
@@ -2441,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>80</v>
       </c>
@@ -2452,7 +3097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>80</v>
       </c>
@@ -2463,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>80</v>
       </c>
@@ -2530,13 +3175,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>14</v>
       </c>
       <c r="D191">
-        <f>sum(D180:D189)</f>
-        <v>0</v>
+        <f>SUM(D180:D189)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -2544,11 +3189,11 @@
         <v>15</v>
       </c>
       <c r="E192">
-        <f>sum(E180:E189)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <f>SUM(E180:E189)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -2559,7 +3204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -2570,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -2581,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -2592,7 +3237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>90</v>
       </c>
@@ -2603,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>90</v>
       </c>
@@ -2614,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -2625,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>90</v>
       </c>
@@ -2636,7 +3281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -2647,13 +3292,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>14</v>
       </c>
       <c r="D204">
-        <f>sum(D194:D202)</f>
-        <v>0</v>
+        <f>SUM(D194:D202)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -2661,11 +3306,11 @@
         <v>15</v>
       </c>
       <c r="E205">
-        <f>sum(E194:E202)</f>
+        <f>SUM(E194:E202)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>92</v>
       </c>
@@ -2676,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>92</v>
       </c>
@@ -2687,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>92</v>
       </c>
@@ -2698,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>92</v>
       </c>
@@ -2709,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>92</v>
       </c>
@@ -2720,7 +3365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>92</v>
       </c>
@@ -2731,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>92</v>
       </c>
@@ -2742,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>92</v>
       </c>
@@ -2753,7 +3398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -2764,13 +3409,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>14</v>
       </c>
       <c r="D217">
-        <f>sum(D207:D215)</f>
-        <v>0</v>
+        <f>SUM(D207:D215)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -2778,22 +3423,26 @@
         <v>15</v>
       </c>
       <c r="E218">
-        <f>sum(E207:E215)</f>
+        <f>SUM(E207:E215)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3053,5 +3702,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>